--- a/BalanceSheet/AES_bal.xlsx
+++ b/BalanceSheet/AES_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-5000000.0</v>
+        <v>461000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>31000000.0</v>
+        <v>474000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-69000000.0</v>
+        <v>504000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>23000000.0</v>
+        <v>461000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>31000000.0</v>
+        <v>487000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>495000000.0</v>
@@ -1914,19 +1914,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-88000000.0</v>
+        <v>1156000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>-17000000.0</v>
+        <v>1103000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>18000000.0</v>
+        <v>1207000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-99000000.0</v>
+        <v>1069000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>6000000.0</v>
+        <v>1311000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1237000000.0</v>
@@ -3070,19 +3070,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>109000000.0</v>
+        <v>812000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-396000000.0</v>
+        <v>590000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>52000000.0</v>
+        <v>962000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>2000000.0</v>
+        <v>908000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-12000000.0</v>
+        <v>1057000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1198000000.0</v>
